--- a/biology/Histoire de la zoologie et de la botanique/Peter_Galton/Peter_Galton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_Galton/Peter_Galton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Malcolm Galton (né le 14 mars 1942) est un paléontologue britannique établi en Amérique. Il est l'auteur ou coauteur d'une centaine d'articles et autres ouvrages scientifiques, surtout centrés sur les dinosaures ornithischiens et prosauropodes.
-En 1974, il a copublié avec Robert Bakker un article dans Nature affirmant que les dinosaures constitueraient un groupe monophylétique, ce qui va à l'encontre de l'idée dominante de l'époque que ces derniers sont polyphylétiques[1]. Cela a changé l'étude de ces derniers, amenant un regain de popularité de l'étude des dinosaures en paléontologie.
+En 1974, il a copublié avec Robert Bakker un article dans Nature affirmant que les dinosaures constitueraient un groupe monophylétique, ce qui va à l'encontre de l'idée dominante de l'époque que ces derniers sont polyphylétiques. Cela a changé l'étude de ces derniers, amenant un regain de popularité de l'étude des dinosaures en paléontologie.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
